--- a/src/assets/docx/BD_TowerManagerCompany_Sozu.xlsx
+++ b/src/assets/docx/BD_TowerManagerCompany_Sozu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">Branch Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC</t>
   </si>
 </sst>
 </file>
@@ -174,14 +183,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" activeCellId="0" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -235,8 +244,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="sample@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
